--- a/biology/Zoologie/Chalodeta_chaonitis/Chalodeta_chaonitis.xlsx
+++ b/biology/Zoologie/Chalodeta_chaonitis/Chalodeta_chaonitis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chalodeta chaonitis est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Chalodeta.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chalodeta chaonitis a été décrit par William Chapman Hewitson en 1866 sous le nom de Charis chaonitis[1].
-Noms vernaculaires
-Il se nomme Chaonitis Metalmark ou Orange-stitched Metalmark en anglais[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chalodeta chaonitis a été décrit par William Chapman Hewitson en 1866 sous le nom de Charis chaonitis.
 </t>
         </is>
       </c>
@@ -541,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chalodeta chaonitis est de couleur verte avec une partie basale marron et une bordure ocre avec deux fines lignnes métallisées et entre elle une ligne submarginale de marques marron.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Chaonitis Metalmark ou Orange-stitched Metalmark en anglais,.
 </t>
         </is>
       </c>
@@ -572,13 +590,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante hôte
-La plante hôte de sa chenille est Miconia longifolia[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chalodeta chaonitis est de couleur verte avec une partie basale marron et une bordure ocre avec deux fines lignnes métallisées et entre elle une ligne submarginale de marques marron.
 </t>
         </is>
       </c>
@@ -604,15 +623,89 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plante hôte</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est Miconia longifolia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chalodeta_chaonitis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chalodeta_chaonitis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Chalodeta chaonitis est  présent au Mexique, en  Équateur, en Guyana, en Guyane, à Trinité-et-Tobago et au Brésil[1].
-Biotope
-Il réside dans la forêt tropicale à l'est des Andes[2].
-Protection</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chalodeta chaonitis est  présent au Mexique, en  Équateur, en Guyana, en Guyane, à Trinité-et-Tobago et au Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chalodeta_chaonitis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chalodeta_chaonitis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale à l'est des Andes.
+</t>
         </is>
       </c>
     </row>
